--- a/data/case1/2/Plm1_1.xlsx
+++ b/data/case1/2/Plm1_1.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.45621143872223513</v>
+        <v>-0.43126688834027505</v>
       </c>
       <c r="B1" s="0">
-        <v>0.4549740142557539</v>
+        <v>0.43015425422417763</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27326901943496829</v>
+        <v>-0.31669422909186196</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27072838033713964</v>
+        <v>0.31332109363173011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16777766660007387</v>
+        <v>-0.21036876431972829</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16709064264738416</v>
+        <v>0.2092897069877111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15509064275521212</v>
+        <v>-0.19728970716584193</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15448250038534894</v>
+        <v>0.19630152140138613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14848250078469061</v>
+        <v>-0.15171220446882838</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1472768944890035</v>
+        <v>0.14989684247922774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.064589111935507759</v>
+        <v>-0.064761874374243966</v>
       </c>
       <c r="B6" s="0">
-        <v>0.064536122288022746</v>
+        <v>0.064697713631348019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.044536122776570153</v>
+        <v>-0.044697714407195832</v>
       </c>
       <c r="B7" s="0">
-        <v>0.044443313220179803</v>
+        <v>0.044583960467697636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.024443313711406844</v>
+        <v>-0.02458396124798945</v>
       </c>
       <c r="B8" s="0">
-        <v>0.02439555231666457</v>
+        <v>0.024535228558585587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.018395552733812437</v>
+        <v>-0.018535229231031458</v>
       </c>
       <c r="B9" s="0">
-        <v>0.018361965316256779</v>
+        <v>0.018506754094679501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.012361965734868363</v>
+        <v>-0.012506754769553652</v>
       </c>
       <c r="B10" s="0">
-        <v>0.012361792251404324</v>
+        <v>0.012507988267728365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0078617926620054845</v>
+        <v>-0.008007988930724963</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0078547101208101822</v>
+        <v>0.0080083366109811038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0018547105396415908</v>
+        <v>-0.0020083372859382997</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0018125834400510854</v>
+        <v>0.0020077379974119403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0041874161411783462</v>
+        <v>0.0039922613277107999</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0042088587325235238</v>
+        <v>-0.0039931562630410866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.016208858281429706</v>
+        <v>0.015993155540865445</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.016259379585835454</v>
+        <v>-0.016008556516587724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051664666416947</v>
+        <v>-0.021052610546063555</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026992538055289</v>
+        <v>0.021027501958152506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026992956852947</v>
+        <v>-0.015027502633362388</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004346267738722</v>
+        <v>0.01500420347567788</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043466882008261</v>
+        <v>-0.0090042041536930739</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995628531337</v>
+        <v>0.0089999992975462462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10413762496332524</v>
+        <v>-0.10346002576376989</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10402726549564889</v>
+        <v>0.10335403845758862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.031092130069028556</v>
+        <v>-0.094354039082727326</v>
       </c>
       <c r="B19" s="0">
-        <v>0.030987649688328567</v>
+        <v>0.093508556095184492</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013809766282307</v>
+        <v>-0.018013490172787527</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004326695159278</v>
+        <v>0.018004280969647013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043270942476994</v>
+        <v>-0.009004281616835641</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999996005296623</v>
+        <v>0.0089999993522216215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093950714142394531</v>
+        <v>-0.093952329958225889</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636646536175761</v>
+        <v>0.093638005214083719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636646945095428</v>
+        <v>-0.084638005866168875</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127252662732133</v>
+        <v>0.084127415206445733</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127253258084529</v>
+        <v>-0.042127416131100937</v>
       </c>
       <c r="B24" s="0">
-        <v>0.04199999940134358</v>
+        <v>0.041999999070143623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.076687782964814488</v>
+        <v>-0.079134968767760938</v>
       </c>
       <c r="B25" s="0">
-        <v>0.076610625450360459</v>
+        <v>0.078987849722814474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.070610625862553178</v>
+        <v>-0.072987850387470132</v>
       </c>
       <c r="B26" s="0">
-        <v>0.070517847307755233</v>
+        <v>0.072801855282982331</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.064517847721549781</v>
+        <v>-0.066801855950177291</v>
       </c>
       <c r="B27" s="0">
-        <v>0.064222098588404108</v>
+        <v>0.066178552510988808</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.058222099008744976</v>
+        <v>-0.060178553189655482</v>
       </c>
       <c r="B28" s="0">
-        <v>0.058038435215986617</v>
+        <v>0.059761769549305122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.04603843567347532</v>
+        <v>-0.047761770283177185</v>
       </c>
       <c r="B29" s="0">
-        <v>0.045966372257545629</v>
+        <v>0.04757523270203734</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.025966372760690248</v>
+        <v>-0.042171616627185493</v>
       </c>
       <c r="B30" s="0">
-        <v>0.025651676218735098</v>
+        <v>0.042019388177807038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.010651676697085222</v>
+        <v>-0.027019388945983991</v>
       </c>
       <c r="B31" s="0">
-        <v>0.010543985711930048</v>
+        <v>0.027000612986180172</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007907802326343</v>
+        <v>-0.0060006138032129286</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995702026965</v>
+        <v>0.005999999302053638</v>
       </c>
     </row>
   </sheetData>
